--- a/chinese_deid.xlsx
+++ b/chinese_deid.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -558,7 +558,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +584,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -594,28 +594,28 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>four</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166,8003</t>
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
@@ -626,7 +626,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>One hundred sixty</t>
+          <t>One hundred and sixty</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -651,7 +651,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Beijing</t>
+          <t>Beijing City</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -669,7 +669,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -679,18 +679,18 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>fourteen thousand three hundred seventy-seven</t>
+          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
@@ -711,7 +711,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>one hundred and sixty six</t>
+          <t>One hundred and sixty-six</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -736,7 +736,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>Chongqing Municipality</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -754,7 +754,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -764,18 +764,18 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>fourteen thousand three hundred seventy-seven</t>
+          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
@@ -796,7 +796,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>one hundred and seventy-two</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -839,7 +839,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -849,28 +849,28 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>four</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166,8003</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -881,7 +881,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>one hundred and sixty six</t>
+          <t>One hundred and sixty-six</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -924,7 +924,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -934,18 +934,18 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>fourteen thousand three hundred seventy-seven</t>
+          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>one hundred and seventy-two</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -991,7 +991,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gansu province</t>
+          <t>Gansu Province</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -1009,7 +1009,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1019,18 +1019,18 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>fourteen thousand three hundred seventy-seven</t>
+          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>one hundred and sixty six</t>
+          <t>One hundred and sixty-six</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1094,7 +1094,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1104,18 +1104,18 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166,8003</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>one hundred and seventy-two</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1179,7 +1179,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1189,18 +1189,18 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>fourteen thousand three hundred seventy-seven</t>
+          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>One hundred sixty</t>
+          <t>One hundred and sixty</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1264,7 +1264,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1274,28 +1274,28 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>four</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>fourteen thousand three hundred seventy-seven</t>
+          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>one hundred and seventy-two</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1349,7 +1349,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1359,18 +1359,18 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166,8003</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>one hundred and seventy-two</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1444,28 +1444,28 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>four</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>fourteen thousand three hundred seventy-seven</t>
+          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>One hundred sixty</t>
+          <t>One hundred and sixty</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1501,7 +1501,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Beijing</t>
+          <t>Beijing City</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -1519,7 +1519,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1529,18 +1529,18 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>fourteen thousand three hundred seventy-seven</t>
+          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>one hundred and seventy-two</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1586,7 +1586,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>Chongqing Municipality</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1604,7 +1604,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1614,18 +1614,18 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166,8003</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>One hundred sixty</t>
+          <t>One hundred and sixty</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1689,7 +1689,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1699,18 +1699,18 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>fourteen thousand three hundred seventy-seven</t>
+          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>one hundred and seventy-two</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1774,7 +1774,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1784,28 +1784,28 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>four</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>fourteen thousand three hundred seventy-seven</t>
+          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>one hundred and seventy-two</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1841,7 +1841,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gansu province</t>
+          <t>Gansu Province</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1859,7 +1859,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1869,18 +1869,18 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166,8003</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>One hundred sixty</t>
+          <t>One hundred and sixty</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1944,7 +1944,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1954,18 +1954,18 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>fourteen thousand three hundred seventy-seven</t>
+          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>one hundred and seventy-two</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2029,7 +2029,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2039,18 +2039,18 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>fourteen thousand three hundred seventy-seven</t>
+          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>one hundred and sixty six</t>
+          <t>One hundred and sixty-six</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2114,7 +2114,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2124,28 +2124,28 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>four</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166,8003</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>one hundred and seventy-two</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Raddy</t>
+          <t>Lardy,</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2199,7 +2199,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2209,28 +2209,28 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>four</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166,8003</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>one hundred and sixty six</t>
+          <t>One hundred and sixty-six</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -2251,6 +2251,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/chinese_deid.xlsx
+++ b/chinese_deid.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -566,72 +566,72 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Anhui Province</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>52</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19860101</t>
+          <t>月十四号0101</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>电子邮件</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>In the morning</t>
+          <t>早晨</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>四</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>166,8003</t>
+          <t>十六万六千八百〇三</t>
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>One hundred and sixty</t>
+          <t>一百六十</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>60 kg</t>
+          <t>60 公斤</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -651,72 +651,72 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Beijing City</t>
+          <t>北京市</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>23</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>17760101</t>
+          <t>七月四号0101</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>The phone</t>
+          <t>电话</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>晚上</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>三</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
+          <t>十四万九千三百七十七</t>
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>One hundred and sixty-six</t>
+          <t>一百六十六</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>75 kg</t>
+          <t>75 公斤</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -736,72 +736,72 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Chongqing Municipality</t>
+          <t>重庆市</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>35</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19970101</t>
+          <t>月十四号0101</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>电子邮件</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>In the morning</t>
+          <t>早晨</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>三</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
+          <t>十四万九千三百七十七</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>One hundred and seventy-two</t>
+          <t>一百七十二</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>75 kg</t>
+          <t>75 公斤</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -821,72 +821,72 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fujian Province</t>
+          <t>福建省</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>35</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19860101</t>
+          <t>月十四号0101</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>The phone</t>
+          <t>电话</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>In the morning</t>
+          <t>早晨</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>四</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>166,8003</t>
+          <t>十六万六千八百〇三</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>One hundred and sixty-six</t>
+          <t>一百六十六</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>66 kg</t>
+          <t>66 公斤</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -906,72 +906,72 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Guangdong Province</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>52</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>17760101</t>
+          <t>七月四号0101</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>The phone</t>
+          <t>电话</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>晚上</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>三</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
+          <t>十四万九千三百七十七</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>One hundred and seventy-two</t>
+          <t>一百七十二</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>66 kg</t>
+          <t>66 公斤</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -991,72 +991,72 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gansu Province</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>52</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19970101</t>
+          <t>月十四号0101</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>电子邮件</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>In the morning</t>
+          <t>早晨</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>三</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
+          <t>十四万九千三百七十七</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>One hundred and sixty-six</t>
+          <t>一百六十六</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>75 kg</t>
+          <t>75 公斤</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1076,72 +1076,72 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Guangxi Zhuang Autonomous Region</t>
+          <t>广西壮族自治区</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>53+54</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>19860101</t>
+          <t>月十四号0101</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>电子邮件</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>In the morning</t>
+          <t>早晨</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>三</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>166,8003</t>
+          <t>十六万六千八百〇三</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>One hundred and seventy-two</t>
+          <t>一百七十二</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>66 kg</t>
+          <t>66 公斤</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1161,72 +1161,72 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Guizhou Province</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>52</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>17760101</t>
+          <t>七月四号0101</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>The phone</t>
+          <t>电话</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>In the morning</t>
+          <t>早晨</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>三</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
+          <t>十四万九千三百七十七</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>One hundred and sixty</t>
+          <t>一百六十</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>60 kg</t>
+          <t>60 公斤</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1246,72 +1246,72 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Henan Province</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>23</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>19970101</t>
+          <t>月十四号0101</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>电子邮件</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>晚上</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>四</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
+          <t>十四万九千三百七十七</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>One hundred and seventy-two</t>
+          <t>一百七十二</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>75 kg</t>
+          <t>75 公斤</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1331,72 +1331,72 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hubei Province</t>
+          <t>湖北省</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>35</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>19860101</t>
+          <t>月十四号0101</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>The phone</t>
+          <t>电话</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>In the morning</t>
+          <t>早晨</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>三</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>166,8003</t>
+          <t>十六万六千八百〇三</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>One hundred and seventy-two</t>
+          <t>一百七十二</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>66 kg</t>
+          <t>66 公斤</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1416,72 +1416,72 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Anhui Province</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>35</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>17760101</t>
+          <t>七月四号0101</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>The phone</t>
+          <t>电话</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>晚上</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>四</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
+          <t>十四万九千三百七十七</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>One hundred and sixty</t>
+          <t>一百六十</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>75 kg</t>
+          <t>75 公斤</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1501,72 +1501,72 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Beijing City</t>
+          <t>北京市</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>52</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19970101</t>
+          <t>月十四号0101</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>The phone</t>
+          <t>电话</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>In the morning</t>
+          <t>早晨</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>三</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
+          <t>十四万九千三百七十七</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>One hundred and seventy-two</t>
+          <t>一百七十二</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>60 kg</t>
+          <t>60 公斤</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1586,72 +1586,72 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Chongqing Municipality</t>
+          <t>重庆市</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>52</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19970101</t>
+          <t>月十四号0101</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>The phone</t>
+          <t>电话</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>In the morning</t>
+          <t>早晨</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>三</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>166,8003</t>
+          <t>十六万六千八百〇三</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>One hundred and sixty</t>
+          <t>一百六十</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>60 kg</t>
+          <t>60 公斤</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1671,72 +1671,72 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fujian Province</t>
+          <t>福建省</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>53+54</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19860101</t>
+          <t>月十四号0101</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>电子邮件</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>晚上</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>三</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
+          <t>十四万九千三百七十七</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>One hundred and seventy-two</t>
+          <t>一百七十二</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>66 kg</t>
+          <t>66 公斤</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1756,72 +1756,72 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Guangdong Province</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>52</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>17760101</t>
+          <t>七月四号0101</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>The phone</t>
+          <t>电话</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>In the morning</t>
+          <t>早晨</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>四</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
+          <t>十四万九千三百七十七</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>One hundred and seventy-two</t>
+          <t>一百七十二</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>75 kg</t>
+          <t>75 公斤</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1841,72 +1841,72 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gansu Province</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>23</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>19970101</t>
+          <t>月十四号0101</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>电子邮件</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>In the morning</t>
+          <t>早晨</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>三</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>166,8003</t>
+          <t>十六万六千八百〇三</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>One hundred and sixty</t>
+          <t>一百六十</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>66 kg</t>
+          <t>66 公斤</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1926,72 +1926,72 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Guangxi Zhuang Autonomous Region</t>
+          <t>广西壮族自治区</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>35</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19860101</t>
+          <t>月十四号0101</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>The phone</t>
+          <t>电话</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>In the morning</t>
+          <t>早晨</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>三</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
+          <t>十四万九千三百七十七</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>One hundred and seventy-two</t>
+          <t>一百七十二</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>60 kg</t>
+          <t>60 公斤</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2011,72 +2011,72 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Guizhou Province</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>35</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>17760101</t>
+          <t>七月四号0101</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>The phone</t>
+          <t>电话</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>晚上</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>三</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>One hundred forty-nine thousand three hundred and seventy-seven</t>
+          <t>十四万九千三百七十七</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>One hundred and sixty-six</t>
+          <t>一百六十六</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>66 kg</t>
+          <t>66 公斤</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2096,72 +2096,72 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Henan Province</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>52</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19970101</t>
+          <t>月十四号0101</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>电子邮件</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>In the morning</t>
+          <t>早晨</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>四</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>166,8003</t>
+          <t>十六万六千八百〇三</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>One hundred and seventy-two</t>
+          <t>一百七十二</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>66 kg</t>
+          <t>66 公斤</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lardy,</t>
+          <t>拉迪卡瓦</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2181,72 +2181,72 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hubei Province</t>
+          <t>湖北省</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>China (PRC)</t>
+          <t>中国 (PRC)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">编 </t>
+          <t>52</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19860101</t>
+          <t>月十四号0101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>mandarin</t>
+          <t>官话</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>The phone</t>
+          <t>电话</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>晚上</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>四</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>166,8003</t>
+          <t>十六万六千八百〇三</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>十</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>One hundred and sixty-six</t>
+          <t>一百六十六</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>75 kg</t>
+          <t>75 公斤</t>
         </is>
       </c>
     </row>

--- a/chinese_deid.xlsx
+++ b/chinese_deid.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -566,14 +566,14 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>Anhui Province</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -584,54 +584,54 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>月十四号0101</t>
+          <t>19860101</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>电子邮件</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>早晨</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>four</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>一百六十</t>
+          <t>One hundred and sixty</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>60 公斤</t>
+          <t>60 kg</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -651,14 +651,14 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>北京市</t>
+          <t>Beijing City</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -669,54 +669,54 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>七月四号0101</t>
+          <t>17760101</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>电话</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>晚上</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>three</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>十四万九千三百七十七</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>一百六十六</t>
+          <t>One hundred and sixty-six</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>75 公斤</t>
+          <t>75 kg</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -736,14 +736,14 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>重庆市</t>
+          <t>Chongqing Municipality</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -754,54 +754,54 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>月十四号0101</t>
+          <t>19970101</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>电子邮件</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>早晨</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>three</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>十四万九千三百七十七</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>一百七十二</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>75 公斤</t>
+          <t>75 kg</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -821,14 +821,14 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>福建省</t>
+          <t>Fujian Province</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -839,54 +839,54 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>月十四号0101</t>
+          <t>19860101</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>电话</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>早晨</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>four</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>一百六十六</t>
+          <t>One hundred and sixty-six</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>66 公斤</t>
+          <t>66 kg</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -906,14 +906,14 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>广东省</t>
+          <t>Guangdong Province</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -924,54 +924,54 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>七月四号0101</t>
+          <t>17760101</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>电话</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>晚上</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>three</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>十四万九千三百七十七</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>一百七十二</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>66 公斤</t>
+          <t>66 kg</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -991,14 +991,14 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>Gansu Province</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1009,54 +1009,54 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>月十四号0101</t>
+          <t>19970101</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>电子邮件</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>早晨</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>three</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>十四万九千三百七十七</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>一百六十六</t>
+          <t>One hundred and sixty-six</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>75 公斤</t>
+          <t>75 kg</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1076,14 +1076,14 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>广西壮族自治区</t>
+          <t>Guangxi Zhuang Autonomous Region</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1094,54 +1094,54 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>月十四号0101</t>
+          <t>19860101</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>电子邮件</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>早晨</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>three</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>一百七十二</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>66 公斤</t>
+          <t>66 kg</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1161,14 +1161,14 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>贵州省</t>
+          <t>Guizhou Province</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1179,54 +1179,54 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>七月四号0101</t>
+          <t>17760101</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>电话</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>早晨</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>three</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>十四万九千三百七十七</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>一百六十</t>
+          <t>One hundred and sixty</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>60 公斤</t>
+          <t>60 kg</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1246,14 +1246,14 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>Henan Province</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1264,54 +1264,54 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>月十四号0101</t>
+          <t>19970101</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>电子邮件</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>晚上</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>four</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>十四万九千三百七十七</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>一百七十二</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>75 公斤</t>
+          <t>75 kg</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1331,14 +1331,14 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>湖北省</t>
+          <t>Hubei Province</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1349,54 +1349,54 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>月十四号0101</t>
+          <t>19860101</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>电话</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>早晨</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>three</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>一百七十二</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>66 公斤</t>
+          <t>66 kg</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1416,14 +1416,14 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>Anhui Province</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1434,54 +1434,54 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>七月四号0101</t>
+          <t>17760101</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>电话</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>晚上</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>four</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>十四万九千三百七十七</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>一百六十</t>
+          <t>One hundred and sixty</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>75 公斤</t>
+          <t>75 kg</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1501,14 +1501,14 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>北京市</t>
+          <t>Beijing City</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1519,54 +1519,54 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>月十四号0101</t>
+          <t>19970101</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>电话</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>早晨</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>three</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>十四万九千三百七十七</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>一百七十二</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>60 公斤</t>
+          <t>60 kg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1586,14 +1586,14 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>重庆市</t>
+          <t>Chongqing Municipality</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1604,54 +1604,54 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>月十四号0101</t>
+          <t>19970101</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>电话</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>早晨</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>three</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>一百六十</t>
+          <t>One hundred and sixty</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>60 公斤</t>
+          <t>60 kg</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1671,14 +1671,14 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>福建省</t>
+          <t>Fujian Province</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1689,54 +1689,54 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>月十四号0101</t>
+          <t>19860101</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>电子邮件</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>晚上</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>three</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>十四万九千三百七十七</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>一百七十二</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>66 公斤</t>
+          <t>66 kg</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1756,14 +1756,14 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>广东省</t>
+          <t>Guangdong Province</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1774,54 +1774,54 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>七月四号0101</t>
+          <t>17760101</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>电话</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>早晨</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>four</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>十四万九千三百七十七</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>一百七十二</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>75 公斤</t>
+          <t>75 kg</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1841,14 +1841,14 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>Gansu Province</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1859,54 +1859,54 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>月十四号0101</t>
+          <t>19970101</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>电子邮件</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>早晨</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>three</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>一百六十</t>
+          <t>One hundred and sixty</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>66 公斤</t>
+          <t>66 kg</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1926,14 +1926,14 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>广西壮族自治区</t>
+          <t>Guangxi Zhuang Autonomous Region</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1944,54 +1944,54 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>women</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>月十四号0101</t>
+          <t>19860101</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>电话</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>早晨</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>three</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>十四万九千三百七十七</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>一百七十二</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>60 公斤</t>
+          <t>60 kg</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2011,14 +2011,14 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>贵州省</t>
+          <t>Guizhou Province</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2029,54 +2029,54 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>七月四号0101</t>
+          <t>17760101</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>电话</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>晚上</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>three</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>十四万九千三百七十七</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>一百六十六</t>
+          <t>One hundred and sixty-six</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>66 公斤</t>
+          <t>66 kg</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2096,14 +2096,14 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>Henan Province</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2114,54 +2114,54 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>月十四号0101</t>
+          <t>19970101</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>电子邮件</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>早晨</t>
+          <t>In the morning</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>four</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>一百七十二</t>
+          <t>One hundred and seventy-two</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>66 公斤</t>
+          <t>66 kg</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>拉迪卡瓦</t>
+          <t>Radhikava</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2181,14 +2181,14 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>湖北省</t>
+          <t>Hubei Province</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>中国 (PRC)</t>
+          <t>China (PRC)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2199,54 +2199,54 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>men</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>月十四号0101</t>
+          <t>19860101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>官话</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>电话</t>
+          <t>The phone</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>晚上</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>four</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>十六万六千八百〇三</t>
+          <t>166803</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>十</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>一百六十六</t>
+          <t>One hundred and sixty-six</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>75 公斤</t>
+          <t>75 kg</t>
         </is>
       </c>
     </row>
